--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lamc2-Itga6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H2">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I2">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J2">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N2">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O2">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P2">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q2">
-        <v>46.32286244059063</v>
+        <v>95.31192489819401</v>
       </c>
       <c r="R2">
-        <v>46.32286244059063</v>
+        <v>857.8073240837462</v>
       </c>
       <c r="S2">
-        <v>0.03935930895908971</v>
+        <v>0.07065686123253911</v>
       </c>
       <c r="T2">
-        <v>0.03935930895908971</v>
+        <v>0.07507207602172808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H3">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I3">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J3">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N3">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O3">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P3">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q3">
-        <v>0.1836170737450222</v>
+        <v>0.433168791558</v>
       </c>
       <c r="R3">
-        <v>0.1836170737450222</v>
+        <v>3.898519124022</v>
       </c>
       <c r="S3">
-        <v>0.0001560145628945754</v>
+        <v>0.0003211177114308831</v>
       </c>
       <c r="T3">
-        <v>0.0001560145628945754</v>
+        <v>0.000341183755178765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H4">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I4">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J4">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N4">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O4">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P4">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q4">
-        <v>10.47865302905971</v>
+        <v>20.695698789396</v>
       </c>
       <c r="R4">
-        <v>10.47865302905971</v>
+        <v>186.261289104564</v>
       </c>
       <c r="S4">
-        <v>0.008903433862162765</v>
+        <v>0.01534218429682023</v>
       </c>
       <c r="T4">
-        <v>0.008903433862162765</v>
+        <v>0.01630088862962164</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H5">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I5">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J5">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N5">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O5">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P5">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q5">
-        <v>10.15810106328892</v>
+        <v>19.961662426768</v>
       </c>
       <c r="R5">
-        <v>10.15810106328892</v>
+        <v>179.654961840912</v>
       </c>
       <c r="S5">
-        <v>0.008631069349404148</v>
+        <v>0.01479802672714316</v>
       </c>
       <c r="T5">
-        <v>0.008631069349404148</v>
+        <v>0.01572272767361553</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.249141347541881</v>
+        <v>0.483258</v>
       </c>
       <c r="H6">
-        <v>0.249141347541881</v>
+        <v>1.449774</v>
       </c>
       <c r="I6">
-        <v>0.05883911835653299</v>
+        <v>0.104155612626562</v>
       </c>
       <c r="J6">
-        <v>0.05883911835653299</v>
+        <v>0.1095883597507648</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N6">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O6">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P6">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q6">
-        <v>2.105857849375292</v>
+        <v>4.097303436258</v>
       </c>
       <c r="R6">
-        <v>2.105857849375292</v>
+        <v>24.583820617548</v>
       </c>
       <c r="S6">
-        <v>0.001789291622981784</v>
+        <v>0.003037422658628655</v>
       </c>
       <c r="T6">
-        <v>0.001789291622981784</v>
+        <v>0.002151483670620783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H7">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I7">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J7">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N7">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O7">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P7">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q7">
-        <v>621.0264096024216</v>
+        <v>683.6098567739649</v>
       </c>
       <c r="R7">
-        <v>621.0264096024216</v>
+        <v>6152.488710965684</v>
       </c>
       <c r="S7">
-        <v>0.5276696870501997</v>
+        <v>0.5067752732815619</v>
       </c>
       <c r="T7">
-        <v>0.5276696870501997</v>
+        <v>0.5384427099941002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H8">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I8">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J8">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N8">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O8">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P8">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q8">
-        <v>2.461658154131122</v>
+        <v>3.106835329075667</v>
       </c>
       <c r="R8">
-        <v>2.461658154131122</v>
+        <v>27.961517961681</v>
       </c>
       <c r="S8">
-        <v>0.00209160571552266</v>
+        <v>0.002303166502547562</v>
       </c>
       <c r="T8">
-        <v>0.00209160571552266</v>
+        <v>0.00244708705925819</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H9">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I9">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J9">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N9">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O9">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P9">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q9">
-        <v>140.4818252855688</v>
+        <v>148.4366589004247</v>
       </c>
       <c r="R9">
-        <v>140.4818252855688</v>
+        <v>1335.929930103822</v>
       </c>
       <c r="S9">
-        <v>0.1193636850840745</v>
+        <v>0.1100394144903874</v>
       </c>
       <c r="T9">
-        <v>0.1193636850840745</v>
+        <v>0.1169155711972737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H10">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I10">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J10">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N10">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O10">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P10">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q10">
-        <v>136.184352592707</v>
+        <v>143.1718980296418</v>
       </c>
       <c r="R10">
-        <v>136.184352592707</v>
+        <v>1288.547082266776</v>
       </c>
       <c r="S10">
-        <v>0.1157122363922212</v>
+        <v>0.1061365295295943</v>
       </c>
       <c r="T10">
-        <v>0.1157122363922212</v>
+        <v>0.1127688022725058</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.34010785162245</v>
+        <v>3.466092333333334</v>
       </c>
       <c r="H11">
-        <v>3.34010785162245</v>
+        <v>10.398277</v>
       </c>
       <c r="I11">
-        <v>0.7888253119934725</v>
+        <v>0.7470398222037985</v>
       </c>
       <c r="J11">
-        <v>0.7888253119934725</v>
+        <v>0.7860053502574217</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.452462307651659</v>
+        <v>8.478501</v>
       </c>
       <c r="N11">
-        <v>8.452462307651659</v>
+        <v>16.957002</v>
       </c>
       <c r="O11">
-        <v>0.03040989860078548</v>
+        <v>0.02916235219621802</v>
       </c>
       <c r="P11">
-        <v>0.03040989860078548</v>
+        <v>0.01963241055449567</v>
       </c>
       <c r="Q11">
-        <v>28.23213571933012</v>
+        <v>29.387267314259</v>
       </c>
       <c r="R11">
-        <v>28.23213571933012</v>
+        <v>176.323603885554</v>
       </c>
       <c r="S11">
-        <v>0.02398809775145447</v>
+        <v>0.02178543839970726</v>
       </c>
       <c r="T11">
-        <v>0.02398809775145447</v>
+        <v>0.01543117973428387</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H12">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I12">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J12">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>185.9300469297</v>
+        <v>197.2278263333334</v>
       </c>
       <c r="N12">
-        <v>185.9300469297</v>
+        <v>591.683479</v>
       </c>
       <c r="O12">
-        <v>0.6689309775274632</v>
+        <v>0.6783778564662776</v>
       </c>
       <c r="P12">
-        <v>0.6689309775274632</v>
+        <v>0.6850369527608899</v>
       </c>
       <c r="Q12">
-        <v>119.9307507455574</v>
+        <v>0.07520954444177778</v>
       </c>
       <c r="R12">
-        <v>119.9307507455574</v>
+        <v>0.676885899976</v>
       </c>
       <c r="S12">
-        <v>0.1019019815181738</v>
+        <v>5.575451708336938E-05</v>
       </c>
       <c r="T12">
-        <v>0.1019019815181738</v>
+        <v>5.92385123259604E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H13">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I13">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J13">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.736999601056408</v>
+        <v>0.896351</v>
       </c>
       <c r="N13">
-        <v>0.736999601056408</v>
+        <v>2.689053</v>
       </c>
       <c r="O13">
-        <v>0.002651544877834711</v>
+        <v>0.003083057200020643</v>
       </c>
       <c r="P13">
-        <v>0.002651544877834711</v>
+        <v>0.003113321122377543</v>
       </c>
       <c r="Q13">
-        <v>0.4753880123920535</v>
+        <v>0.0003418085146666667</v>
       </c>
       <c r="R13">
-        <v>0.4753880123920535</v>
+        <v>0.003076276632</v>
       </c>
       <c r="S13">
-        <v>0.0004039245994174758</v>
+        <v>2.533902952301051E-07</v>
       </c>
       <c r="T13">
-        <v>0.0004039245994174758</v>
+        <v>2.692241797166366E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H14">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I14">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J14">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>42.0590686068206</v>
+        <v>42.82536200000001</v>
       </c>
       <c r="N14">
-        <v>42.0590686068206</v>
+        <v>128.476086</v>
       </c>
       <c r="O14">
-        <v>0.1513182744889685</v>
+        <v>0.1473006006102414</v>
       </c>
       <c r="P14">
-        <v>0.1513182744889685</v>
+        <v>0.1487465335432934</v>
       </c>
       <c r="Q14">
-        <v>27.12942720647028</v>
+        <v>0.01633073804266667</v>
       </c>
       <c r="R14">
-        <v>27.12942720647028</v>
+        <v>0.146976642384</v>
       </c>
       <c r="S14">
-        <v>0.02305115554273125</v>
+        <v>1.210634128875421E-05</v>
       </c>
       <c r="T14">
-        <v>0.02305115554273125</v>
+        <v>1.286284385862014E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.645031573572953</v>
+        <v>0.0003813333333333334</v>
       </c>
       <c r="H15">
-        <v>0.645031573572953</v>
+        <v>0.001144</v>
       </c>
       <c r="I15">
-        <v>0.1523355696499945</v>
+        <v>8.218799678073065E-05</v>
       </c>
       <c r="J15">
-        <v>0.1523355696499945</v>
+        <v>8.64749150935766E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>40.7724416822516</v>
+        <v>41.30642933333333</v>
       </c>
       <c r="N15">
-        <v>40.7724416822516</v>
+        <v>123.919288</v>
       </c>
       <c r="O15">
-        <v>0.1466893045049481</v>
+        <v>0.1420761335272424</v>
       </c>
       <c r="P15">
-        <v>0.1466893045049481</v>
+        <v>0.1434707820189434</v>
       </c>
       <c r="Q15">
-        <v>26.29951221671421</v>
+        <v>0.01575151838577778</v>
       </c>
       <c r="R15">
-        <v>26.29951221671421</v>
+        <v>0.141763665472</v>
       </c>
       <c r="S15">
-        <v>0.02234599876332277</v>
+        <v>1.167695280495565E-05</v>
       </c>
       <c r="T15">
-        <v>0.02234599876332277</v>
+        <v>1.240662369349717E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.0003813333333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.001144</v>
+      </c>
+      <c r="I16">
+        <v>8.218799678073065E-05</v>
+      </c>
+      <c r="J16">
+        <v>8.64749150935766E-05</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>8.478501</v>
+      </c>
+      <c r="N16">
+        <v>16.957002</v>
+      </c>
+      <c r="O16">
+        <v>0.02916235219621802</v>
+      </c>
+      <c r="P16">
+        <v>0.01963241055449567</v>
+      </c>
+      <c r="Q16">
+        <v>0.003233135048</v>
+      </c>
+      <c r="R16">
+        <v>0.019398810288</v>
+      </c>
+      <c r="S16">
+        <v>2.3967953084213E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.69771103578225E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.380075</v>
+      </c>
+      <c r="I17">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J17">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>197.2278263333334</v>
+      </c>
+      <c r="N17">
+        <v>591.683479</v>
+      </c>
+      <c r="O17">
+        <v>0.6783778564662776</v>
+      </c>
+      <c r="P17">
+        <v>0.6850369527608899</v>
+      </c>
+      <c r="Q17">
+        <v>136.0945962134875</v>
+      </c>
+      <c r="R17">
+        <v>816.5675772809251</v>
+      </c>
+      <c r="S17">
+        <v>0.1008899674350931</v>
+      </c>
+      <c r="T17">
+        <v>0.07146292823273584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.380075</v>
+      </c>
+      <c r="I18">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J18">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.896351</v>
+      </c>
+      <c r="N18">
+        <v>2.689053</v>
+      </c>
+      <c r="O18">
+        <v>0.003083057200020643</v>
+      </c>
+      <c r="P18">
+        <v>0.003113321122377543</v>
+      </c>
+      <c r="Q18">
+        <v>0.6185158031625001</v>
+      </c>
+      <c r="R18">
+        <v>3.711094818975</v>
+      </c>
+      <c r="S18">
+        <v>0.0004585195957469676</v>
+      </c>
+      <c r="T18">
+        <v>0.0003247810837608717</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.380075</v>
+      </c>
+      <c r="I19">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J19">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>42.82536200000001</v>
+      </c>
+      <c r="N19">
+        <v>128.476086</v>
+      </c>
+      <c r="O19">
+        <v>0.1473006006102414</v>
+      </c>
+      <c r="P19">
+        <v>0.1487465335432934</v>
+      </c>
+      <c r="Q19">
+        <v>29.55110573107501</v>
+      </c>
+      <c r="R19">
+        <v>177.30663438645</v>
+      </c>
+      <c r="S19">
+        <v>0.02190689548174493</v>
+      </c>
+      <c r="T19">
+        <v>0.0155172108725395</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.645031573572953</v>
-      </c>
-      <c r="H16">
-        <v>0.645031573572953</v>
-      </c>
-      <c r="I16">
-        <v>0.1523355696499945</v>
-      </c>
-      <c r="J16">
-        <v>0.1523355696499945</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>8.452462307651659</v>
-      </c>
-      <c r="N16">
-        <v>8.452462307651659</v>
-      </c>
-      <c r="O16">
-        <v>0.03040989860078548</v>
-      </c>
-      <c r="P16">
-        <v>0.03040989860078548</v>
-      </c>
-      <c r="Q16">
-        <v>5.452105062870624</v>
-      </c>
-      <c r="R16">
-        <v>5.452105062870624</v>
-      </c>
-      <c r="S16">
-        <v>0.004632509226349227</v>
-      </c>
-      <c r="T16">
-        <v>0.004632509226349227</v>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.380075</v>
+      </c>
+      <c r="I20">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J20">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>41.30642933333333</v>
+      </c>
+      <c r="N20">
+        <v>123.919288</v>
+      </c>
+      <c r="O20">
+        <v>0.1420761335272424</v>
+      </c>
+      <c r="P20">
+        <v>0.1434707820189434</v>
+      </c>
+      <c r="Q20">
+        <v>28.5029852311</v>
+      </c>
+      <c r="R20">
+        <v>171.0179113866</v>
+      </c>
+      <c r="S20">
+        <v>0.02112990031769996</v>
+      </c>
+      <c r="T20">
+        <v>0.01496684544912859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6900375000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.380075</v>
+      </c>
+      <c r="I21">
+        <v>0.1487223771728586</v>
+      </c>
+      <c r="J21">
+        <v>0.10431981507672</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>8.478501</v>
+      </c>
+      <c r="N21">
+        <v>16.957002</v>
+      </c>
+      <c r="O21">
+        <v>0.02916235219621802</v>
+      </c>
+      <c r="P21">
+        <v>0.01963241055449567</v>
+      </c>
+      <c r="Q21">
+        <v>5.8504836337875</v>
+      </c>
+      <c r="R21">
+        <v>23.40193453515</v>
+      </c>
+      <c r="S21">
+        <v>0.004337094342573678</v>
+      </c>
+      <c r="T21">
+        <v>0.002048049438555235</v>
       </c>
     </row>
   </sheetData>
